--- a/Companies/Bank - Private/Axis Bank Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
+++ b/Companies/Bank - Private/Axis Bank Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,14 +435,10 @@
   <cols>
     <col width="54" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '22</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '22</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '22</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '23</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>13,893.01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15,257.39</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17,091.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>18,312.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>20,134.68</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18,312.41</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17,091.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15,257.39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>13,893.01</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>20134.68</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>13893.01</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>16937.698</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>4,281.45</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4,477.47</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4,584.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4,834.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>4,783.04</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4,834.90</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4,584.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4,477.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4,281.45</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>4834.9</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>4281.45</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>4592.354</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>192.97</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>142.01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>202.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>361.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>299.11</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>361.31</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>202.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>142.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>192.97</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>361.31</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>142.01</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>239.624</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>362.22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>362.06</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>347.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>461.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>339.94</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>461.14</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>347.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>362.06</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>362.22</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>461.14</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>339.94</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>374.632</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2,998.96</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3,941.15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4,665.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4,895.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>5,087.27</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4,895.32</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4,665.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3,941.15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2,998.96</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>5087.27</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>2998.96</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>4317.628</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>9,344.64</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9,878.67</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10,767.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12,227.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>13,598.00</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>12,227.60</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10,767.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9,878.67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9,344.64</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>13598</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>9344.639999999999</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>11163.204</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2,186.09</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2,166.65</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,281.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2,163.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2,688.48</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2,163.62</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,281.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2,166.65</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2,186.09</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>2688.48</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>2163.62</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2297.178</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>4,309.88</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4,418.55</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4,566.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5,306.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>5,543.20</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>5,306.25</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4,566.22</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4,418.55</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4,309.88</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>5543.2</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>4309.88</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>4828.82</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>5,888.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7,716.21</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9,277.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9,167.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>8,814.36</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>9,167.61</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9,277.49</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7,716.21</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5,888.00</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>9277.49</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>5888</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>8172.733999999999</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>359.36</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>549.78</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,437.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>305.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>1,034.88</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>305.77</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1,437.73</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>549.78</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>359.36</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1437.73</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>305.77</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>737.504</v>
       </c>
     </row>
     <row r="16">
@@ -935,32 +822,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>-12,489.82</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>-12489.82</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>-12489.82</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>-12489.82</v>
       </c>
     </row>
     <row r="17">
@@ -971,37 +849,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>5,528.64</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7,166.43</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7,839.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-3,627.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>7,779.48</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-3,627.98</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7,839.76</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7,166.43</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5,528.64</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>7839.76</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>-3627.98</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>4937.266000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,402.38</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1,836.66</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,986.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,100.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,982.38</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,100.44</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,986.69</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1,836.66</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,402.38</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2100.44</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>1402.38</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1861.71</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>4,126.26</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5,329.77</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5,853.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-5,728.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>5,797.10</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-5,728.42</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5,853.07</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5,329.77</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4,126.26</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>5853.07</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-5728.42</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>3075.556</v>
       </c>
     </row>
     <row r="20">
@@ -1094,37 +945,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>4,126.26</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5,329.77</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5,853.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-5,728.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>5,797.10</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-5,728.42</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5,853.07</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5,329.77</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4,126.26</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>5853.07</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>-5728.42</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>3075.556</v>
       </c>
     </row>
     <row r="21">
@@ -1135,37 +977,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>614.29</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>614.46</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>614.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>615.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>615.95</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>615.37</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>614.99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>614.46</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>614.29</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>615.95</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>614.29</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>615.0119999999999</v>
       </c>
     </row>
     <row r="22"/>
@@ -1192,37 +1025,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-18.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>18.83</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>-18.62</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>19.04</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>17.35</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>13.43</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>19.04</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>-18.62</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>10.006</v>
       </c>
     </row>
     <row r="27">
@@ -1233,37 +1057,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-18.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>18.75</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>-18.62</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>18.80</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>17.23</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>-18.62</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>9.912000000000001</v>
       </c>
     </row>
     <row r="28"/>
@@ -1282,37 +1097,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-18.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>18.83</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>-18.62</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>19.04</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>17.35</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>13.43</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>19.04</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>-18.62</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>10.006</v>
       </c>
     </row>
     <row r="31">
@@ -1323,37 +1129,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-18.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>18.75</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>-18.62</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>18.80</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>17.23</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>-18.62</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>9.912000000000001</v>
       </c>
     </row>
     <row r="32"/>
@@ -1372,37 +1169,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>21,036.77</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>19,893.73</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19,961.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>18,604.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>18,158.23</t>
         </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>18,604.23</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>19,961.02</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>19,893.73</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>21,036.77</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>21036.77</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>18158.23</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>19530.796</v>
       </c>
     </row>
     <row r="35">
@@ -1413,37 +1201,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>4,780.62</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3,995.54</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3,830.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3,558.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>3,703.56</t>
         </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>3,558.92</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3,830.10</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>3,995.54</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4,780.62</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>4780.62</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>3558.92</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>3973.748</v>
       </c>
     </row>
     <row r="36">
@@ -1454,37 +1233,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>1.96</t>
         </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>2.324</v>
       </c>
     </row>
     <row r="37">
@@ -1495,37 +1265,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>0.41</t>
         </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.484</v>
       </c>
     </row>
     <row r="38">
@@ -1536,37 +1297,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>-1.83</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1.80</t>
         </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>-1.83</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>1.026</v>
       </c>
     </row>
     <row r="39"/>
@@ -1609,37 +1361,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>202206</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>202209</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>202303</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>202306</t>
         </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>202303</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>202212</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>202209</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>202206</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>202306</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>202206</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>202247.2</v>
       </c>
     </row>
   </sheetData>
